--- a/5. Other/Danh sách số SIM BH-SX/SIM_Test BH-SX.xlsx
+++ b/5. Other/Danh sách số SIM BH-SX/SIM_Test BH-SX.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\5. Other\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\5. Other\Danh sách số SIM BH-SX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2B40246-9C73-4F7C-96FE-5534654ADF54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9986250-F23C-43E9-8C34-BD6FEFF8F6A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{68255EAF-D8EA-4C2C-BCF7-C24A5FBA6E37}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
   <si>
     <t>Seri</t>
   </si>
@@ -164,13 +164,16 @@
   </si>
   <si>
     <t>Test định vị</t>
+  </si>
+  <si>
+    <t>Báo huỷ DV</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -205,8 +208,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -216,6 +224,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -284,7 +298,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -292,21 +306,12 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -314,11 +319,23 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -634,19 +651,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69ED331E-3E24-49D9-A8FD-C7C548CF9C48}">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.140625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="18" style="5" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="18" style="4" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -662,12 +679,12 @@
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="1">
@@ -676,15 +693,15 @@
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="1">
@@ -693,13 +710,13 @@
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="6"/>
+      <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="1">
@@ -708,11 +725,11 @@
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="6"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="1">
@@ -721,13 +738,13 @@
       <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="6"/>
+      <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="1">
@@ -736,13 +753,13 @@
       <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="6"/>
+      <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="1">
@@ -751,15 +768,15 @@
       <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="8" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="1">
@@ -768,11 +785,11 @@
       <c r="C8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="9"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" s="1">
@@ -781,11 +798,11 @@
       <c r="C9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="9"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="1">
@@ -794,11 +811,11 @@
       <c r="C10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="11"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="9"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" s="1">
@@ -807,13 +824,13 @@
       <c r="C11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="11"/>
+      <c r="E11" s="9"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
+      <c r="A12" s="3">
         <v>11</v>
       </c>
       <c r="B12" s="1">
@@ -822,11 +839,11 @@
       <c r="C12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="9"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
+      <c r="A13" s="3">
         <v>12</v>
       </c>
       <c r="B13" s="1">
@@ -835,11 +852,11 @@
       <c r="C13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="9"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
+      <c r="A14" s="3">
         <v>13</v>
       </c>
       <c r="B14" s="1">
@@ -848,11 +865,11 @@
       <c r="C14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="11"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="9"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
+      <c r="A15" s="3">
         <v>14</v>
       </c>
       <c r="B15" s="1">
@@ -861,13 +878,13 @@
       <c r="C15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="11"/>
+      <c r="E15" s="9"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
+      <c r="A16" s="3">
         <v>15</v>
       </c>
       <c r="B16" s="1">
@@ -876,11 +893,11 @@
       <c r="C16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="11"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
+      <c r="D16" s="11"/>
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
         <v>16</v>
       </c>
       <c r="B17" s="1">
@@ -889,11 +906,11 @@
       <c r="C17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="11"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
+      <c r="D17" s="11"/>
+      <c r="E17" s="9"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
         <v>17</v>
       </c>
       <c r="B18" s="1">
@@ -902,11 +919,11 @@
       <c r="C18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="10"/>
-      <c r="E18" s="11"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
+      <c r="D18" s="7"/>
+      <c r="E18" s="9"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
         <v>18</v>
       </c>
       <c r="B19" s="1">
@@ -915,13 +932,13 @@
       <c r="C19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="11"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
+      <c r="E19" s="9"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
         <v>19</v>
       </c>
       <c r="B20" s="1">
@@ -930,11 +947,11 @@
       <c r="C20" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
         <v>20</v>
       </c>
       <c r="B21" s="1">
@@ -943,11 +960,11 @@
       <c r="C21" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
         <v>21</v>
       </c>
       <c r="B22" s="1">
@@ -956,11 +973,11 @@
       <c r="C22" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
         <v>22</v>
       </c>
       <c r="B23" s="1">
@@ -969,11 +986,11 @@
       <c r="C23" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
         <v>23</v>
       </c>
       <c r="B24" s="1">
@@ -982,11 +999,11 @@
       <c r="C24" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
         <v>24</v>
       </c>
       <c r="B25" s="1">
@@ -995,11 +1012,11 @@
       <c r="C25" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
         <v>25</v>
       </c>
       <c r="B26" s="1">
@@ -1008,11 +1025,11 @@
       <c r="C26" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
         <v>26</v>
       </c>
       <c r="B27" s="1">
@@ -1021,11 +1038,11 @@
       <c r="C27" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
         <v>27</v>
       </c>
       <c r="B28" s="1">
@@ -1034,11 +1051,11 @@
       <c r="C28" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="4">
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
         <v>28</v>
       </c>
       <c r="B29" s="1">
@@ -1047,11 +1064,11 @@
       <c r="C29" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="4">
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
         <v>29</v>
       </c>
       <c r="B30" s="1">
@@ -1060,11 +1077,11 @@
       <c r="C30" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="4">
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
         <v>30</v>
       </c>
       <c r="B31" s="1">
@@ -1073,24 +1090,27 @@
       <c r="C31" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="4">
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="12">
         <v>31</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32" s="13">
         <v>1173963065</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="4">
+      <c r="A33" s="3">
         <v>32</v>
       </c>
       <c r="B33" s="1">
@@ -1099,11 +1119,11 @@
       <c r="C33" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="4">
+      <c r="A34" s="3">
         <v>33</v>
       </c>
       <c r="B34" s="1">
@@ -1112,11 +1132,11 @@
       <c r="C34" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="4">
+      <c r="A35" s="3">
         <v>34</v>
       </c>
       <c r="B35" s="1">
@@ -1125,11 +1145,11 @@
       <c r="C35" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="4">
+      <c r="A36" s="3">
         <v>35</v>
       </c>
       <c r="B36" s="1">
@@ -1138,8 +1158,8 @@
       <c r="C36" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="7">
